--- a/ZYX论文阅读笔记.xlsx
+++ b/ZYX论文阅读笔记.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10311"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F34D752A-D3F4-7345-BA31-957D02095285}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7C2E7C9-81F3-C947-AC7F-A0DC6C9E621B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="880" windowWidth="41120" windowHeight="24040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11702,7 +11702,7 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>

--- a/ZYX论文阅读笔记.xlsx
+++ b/ZYX论文阅读笔记.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10311"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7C2E7C9-81F3-C947-AC7F-A0DC6C9E621B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB8F7E08-C1BF-F541-9043-04FE02CF2BBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="41120" windowHeight="24040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="41120" windowHeight="24040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>阅读日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -95,6 +95,30 @@
       </rPr>
       <t>𝐀, e𝐀 ∈ R𝐀 are Xavier-initialized [8] id-corresponding embeddings.</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实验日志添加：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对GATCF采取Mean，cat，add，但是只构建了一组嵌入，对图和原始embed进行融合操作，实验效果原始代码0.315，新结果0.330，0.325，0.325</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Density默认百分之10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对GATCF采取NeuCF思想，先做mf，对图也是mf，先普通做Add，MAE0.430</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对GATCF不做内积，直接拼接，单层线性层，0.510，多层线性层，0.335</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -337,6 +361,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -345,9 +372,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -675,17 +699,17 @@
   <sheetData>
     <row r="1" spans="2:10" ht="15" thickBot="1"/>
     <row r="2" spans="2:10" ht="100" customHeight="1" thickBot="1">
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="16"/>
     </row>
     <row r="3" spans="2:10" ht="58" customHeight="1" thickTop="1" thickBot="1">
       <c r="B3" s="5" t="s">
@@ -11701,8 +11725,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView zoomScale="200" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -11711,7 +11735,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="118" customHeight="1">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="13" t="s">
         <v>12</v>
       </c>
     </row>
@@ -11733,12 +11757,51 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="139.6640625" customWidth="1"/>
+    <col min="3" max="3" width="25.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="118" customHeight="1">
+      <c r="B1" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>4.3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
